--- a/SuppXLS/Scen_Wind_Profile.xlsx
+++ b/SuppXLS/Scen_Wind_Profile.xlsx
@@ -1,38 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Gucwa\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02B4E0-833E-4F67-98CA-8FF2A3517AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07AEA3-4536-46F4-9CFC-547CCDA1ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
+  </si>
+  <si>
+    <t>~TFM_INS:</t>
+  </si>
+  <si>
+    <t>\I: Commodity Set: Commodity Name</t>
+  </si>
   <si>
     <t>CSet_CN</t>
   </si>
   <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -42,49 +83,16 @@
     <t>All Regions or region name</t>
   </si>
   <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
-  </si>
-  <si>
-    <t>Time slice</t>
-  </si>
-  <si>
     <t>Attribute Name</t>
   </si>
   <si>
-    <t>\I: Commodity Set: Commodity name</t>
-  </si>
-  <si>
-    <t>~TFM_INS:</t>
+    <t>Pset_PN</t>
   </si>
   <si>
     <t>ELE_EX_WIND_TURBINE</t>
   </si>
   <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
-    <t>Process Set</t>
+    <t>Process Set: Process Name</t>
   </si>
   <si>
     <t>NCAP_AF</t>
@@ -94,17 +102,19 @@
   </si>
   <si>
     <t>UP</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,14 +141,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,26 +163,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,18 +208,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -245,13 +235,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,46 +252,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 10" xfId="2" xr:uid="{A7B9EC67-9B3E-4BA8-8F8C-5D6B963513A9}"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{94D75CA9-FB45-48C0-A1D5-830E8A5A02E8}"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{EC0AC33C-B7F0-448A-AADD-A58864234F2E}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{BA96B4E3-7EF0-4F94-8893-B1418C31CECC}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +336,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -401,7 +371,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -583,242 +553,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:H23"/>
+  <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9">
+        <f ca="1">RAND()</f>
+        <v>0.6618215927212201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:G13" ca="1" si="0">RAND()</f>
+        <v>0.48075881178300595</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49793687560379862</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="18" t="s">
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98207866749933537</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="18" t="s">
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14553067911531603</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="18" t="s">
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15944111562314667</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="18" t="s">
+      <c r="E12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28454759199362123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22">
-        <v>0.42899999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <v>0.73</v>
+      <c r="E13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31697893724135973</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="17">
+        <f ca="1">SUM(G6:G13)</f>
+        <v>3.5290942715808038</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="17">
+        <f ca="1">SUM(G6:G13)</f>
+        <v>3.5290942715808038</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E6:H6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+    <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="95645557-b925-4e14-b9c3-bb0dccab904e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEEB4B7-78E0-4B6E-86DB-B5340A08A767}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21302669-4263-4E83-8544-65D7F8869935}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD484F8A-F1B9-430D-B6E2-9C0D880C6E7F}"/>
 </file>